--- a/starting with data/excel files/our_data.xlsx
+++ b/starting with data/excel files/our_data.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD141D34-1B5F-4A1B-9D68-9473FFB6A0A3}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CA627F-2A64-47EA-A226-FB7C32557CD1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="the graph data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="32">
   <si>
     <t>JD_Telescope</t>
   </si>
@@ -107,6 +108,15 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>JD - 2457651.0[day]</t>
+  </si>
+  <si>
+    <t>V[mag]</t>
+  </si>
+  <si>
+    <t>error_V[mag]</t>
   </si>
 </sst>
 </file>
@@ -510,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6151,4 +6161,720 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C12885-7B61-4282-9448-FED1A8F629C6}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6650000000372529</v>
+      </c>
+      <c r="C2">
+        <v>17.021999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.799000000115484</v>
+      </c>
+      <c r="C3">
+        <v>14.672000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.799000000115484</v>
+      </c>
+      <c r="C4">
+        <v>14.672000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.1650000000372529</v>
+      </c>
+      <c r="C5">
+        <v>14.789</v>
+      </c>
+      <c r="D5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.2310000001452859</v>
+      </c>
+      <c r="C6">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="D6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.6069999998435378</v>
+      </c>
+      <c r="C7">
+        <v>15.106</v>
+      </c>
+      <c r="D7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.608000000007451</v>
+      </c>
+      <c r="C8">
+        <v>15.102</v>
+      </c>
+      <c r="D8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.6290000001899898</v>
+      </c>
+      <c r="C9">
+        <v>15.202</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.6290000001899898</v>
+      </c>
+      <c r="C10">
+        <v>15.202</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.7880000001750891</v>
+      </c>
+      <c r="C11">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.7880000001750891</v>
+      </c>
+      <c r="C12">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.8209999999962752</v>
+      </c>
+      <c r="C13">
+        <v>15.273999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.822000000160187</v>
+      </c>
+      <c r="C14">
+        <v>15.247</v>
+      </c>
+      <c r="D14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.8960000001825388</v>
+      </c>
+      <c r="C15">
+        <v>15.502000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.8960000001825388</v>
+      </c>
+      <c r="C16">
+        <v>15.502000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.2349999998696148</v>
+      </c>
+      <c r="C17">
+        <v>15.651999999999999</v>
+      </c>
+      <c r="D17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.31900000013411</v>
+      </c>
+      <c r="C18">
+        <v>15.756</v>
+      </c>
+      <c r="D18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.3199999998323619</v>
+      </c>
+      <c r="C19">
+        <v>15.949</v>
+      </c>
+      <c r="D19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.572999999858439</v>
+      </c>
+      <c r="C20">
+        <v>16.023</v>
+      </c>
+      <c r="D20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.5740000000223522</v>
+      </c>
+      <c r="C21">
+        <v>16.044</v>
+      </c>
+      <c r="D21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3.6669999998994172</v>
+      </c>
+      <c r="C22">
+        <v>16.059000000000001</v>
+      </c>
+      <c r="D22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3.6680000000633299</v>
+      </c>
+      <c r="C23">
+        <v>16.085000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3.697999999858439</v>
+      </c>
+      <c r="C24">
+        <v>16.114999999999998</v>
+      </c>
+      <c r="D24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3.6990000000223522</v>
+      </c>
+      <c r="C25">
+        <v>16.123000000000001</v>
+      </c>
+      <c r="D25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3.8739999998360868</v>
+      </c>
+      <c r="C26">
+        <v>16.207999999999998</v>
+      </c>
+      <c r="D26">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3.875</v>
+      </c>
+      <c r="C27">
+        <v>16.187000000000001</v>
+      </c>
+      <c r="D27">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3.8879999998025601</v>
+      </c>
+      <c r="C28">
+        <v>16.282</v>
+      </c>
+      <c r="D28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3.8889999999664719</v>
+      </c>
+      <c r="C29">
+        <v>16.289000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4.3209999999962747</v>
+      </c>
+      <c r="C30">
+        <v>16.234999999999999</v>
+      </c>
+      <c r="D30">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4.3220000001601866</v>
+      </c>
+      <c r="C31">
+        <v>16.344999999999999</v>
+      </c>
+      <c r="D31">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4.6889999997802079</v>
+      </c>
+      <c r="C32">
+        <v>16.372</v>
+      </c>
+      <c r="D32">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4.6899999999441206</v>
+      </c>
+      <c r="C33">
+        <v>16.323</v>
+      </c>
+      <c r="D33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4.7289999998174608</v>
+      </c>
+      <c r="C34">
+        <v>16.318999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4.7299999999813744</v>
+      </c>
+      <c r="C35">
+        <v>16.29</v>
+      </c>
+      <c r="D35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>5.3130000000819564</v>
+      </c>
+      <c r="C36">
+        <v>16.155999999999999</v>
+      </c>
+      <c r="D36">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>5.3139999997802079</v>
+      </c>
+      <c r="C37">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="D37">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5.4589999997988343</v>
+      </c>
+      <c r="C38">
+        <v>16.111000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>5.4599999999627471</v>
+      </c>
+      <c r="C39">
+        <v>16.131</v>
+      </c>
+      <c r="D39">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>5.5180000001564622</v>
+      </c>
+      <c r="C40">
+        <v>16.140999999999998</v>
+      </c>
+      <c r="D40">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>5.5189999998547137</v>
+      </c>
+      <c r="C41">
+        <v>16.184999999999999</v>
+      </c>
+      <c r="D41">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>5.546000000089407</v>
+      </c>
+      <c r="C42">
+        <v>16.196999999999999</v>
+      </c>
+      <c r="D42">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5.5469999997876576</v>
+      </c>
+      <c r="C43">
+        <v>16.224</v>
+      </c>
+      <c r="D43">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>6.4160000002011657</v>
+      </c>
+      <c r="C44">
+        <v>15.949</v>
+      </c>
+      <c r="D44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>6.4180000000633299</v>
+      </c>
+      <c r="C45">
+        <v>15.935</v>
+      </c>
+      <c r="D45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>6.5049999998882413</v>
+      </c>
+      <c r="C46">
+        <v>15.881</v>
+      </c>
+      <c r="D46">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>6.5060000000521541</v>
+      </c>
+      <c r="C47">
+        <v>15.925000000000001</v>
+      </c>
+      <c r="D47">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>6.5800000000745058</v>
+      </c>
+      <c r="C48">
+        <v>15.965</v>
+      </c>
+      <c r="D48">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>6.5849999999627471</v>
+      </c>
+      <c r="C49">
+        <v>15.837</v>
+      </c>
+      <c r="D49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>6.5860000001266599</v>
+      </c>
+      <c r="C50">
+        <v>15.906000000000001</v>
+      </c>
+      <c r="D50">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/starting with data/excel files/our_data.xlsx
+++ b/starting with data/excel files/our_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CA627F-2A64-47EA-A226-FB7C32557CD1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35617BB2-8DCF-4F75-87FC-EEBDAC73C471}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6168,7 +6168,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6650000000372529</v>
+        <v>0.66500000003725201</v>
       </c>
       <c r="C2">
         <v>17.021999999999998</v>

--- a/starting with data/excel files/our_data.xlsx
+++ b/starting with data/excel files/our_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35617BB2-8DCF-4F75-87FC-EEBDAC73C471}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_23F921EDEB434B17FF30243C1972D9587453FBA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{854EE9B7-082D-4AE1-92DB-5B4416498012}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6165,712 +6165,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C12885-7B61-4282-9448-FED1A8F629C6}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.66500000003725201</v>
+      </c>
+      <c r="B2">
+        <v>17.021999999999998</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.66500000003725201</v>
-      </c>
-      <c r="C2">
-        <v>17.021999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.799000000115484</v>
       </c>
       <c r="B3">
+        <v>14.672000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1.799000000115484</v>
       </c>
-      <c r="C3">
+      <c r="B4">
         <v>14.672000000000001</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.799000000115484</v>
-      </c>
-      <c r="C4">
-        <v>14.672000000000001</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.1650000000372529</v>
+      </c>
+      <c r="B5">
+        <v>14.789</v>
+      </c>
+      <c r="C5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.2310000001452859</v>
+      </c>
+      <c r="B6">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.6069999998435378</v>
+      </c>
+      <c r="B7">
+        <v>15.106</v>
+      </c>
+      <c r="C7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.608000000007451</v>
+      </c>
+      <c r="B8">
+        <v>15.102</v>
+      </c>
+      <c r="C8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.6290000001899898</v>
+      </c>
+      <c r="B9">
+        <v>15.202</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.6290000001899898</v>
+      </c>
+      <c r="B10">
+        <v>15.202</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.7880000001750891</v>
+      </c>
+      <c r="B11">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.7880000001750891</v>
+      </c>
+      <c r="B12">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.8209999999962752</v>
+      </c>
+      <c r="B13">
+        <v>15.273999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.822000000160187</v>
+      </c>
+      <c r="B14">
+        <v>15.247</v>
+      </c>
+      <c r="C14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.8960000001825388</v>
+      </c>
+      <c r="B15">
+        <v>15.502000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.8960000001825388</v>
+      </c>
+      <c r="B16">
+        <v>15.502000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.2349999998696148</v>
+      </c>
+      <c r="B17">
+        <v>15.651999999999999</v>
+      </c>
+      <c r="C17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.31900000013411</v>
+      </c>
+      <c r="B18">
+        <v>15.756</v>
+      </c>
+      <c r="C18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.3199999998323619</v>
+      </c>
+      <c r="B19">
+        <v>15.949</v>
+      </c>
+      <c r="C19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.572999999858439</v>
+      </c>
+      <c r="B20">
+        <v>16.023</v>
+      </c>
+      <c r="C20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.5740000000223522</v>
+      </c>
+      <c r="B21">
+        <v>16.044</v>
+      </c>
+      <c r="C21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.6669999998994172</v>
+      </c>
+      <c r="B22">
+        <v>16.059000000000001</v>
+      </c>
+      <c r="C22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.6680000000633299</v>
+      </c>
+      <c r="B23">
+        <v>16.085000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.697999999858439</v>
+      </c>
+      <c r="B24">
+        <v>16.114999999999998</v>
+      </c>
+      <c r="C24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3.6990000000223522</v>
+      </c>
+      <c r="B25">
+        <v>16.123000000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.8739999998360868</v>
+      </c>
+      <c r="B26">
+        <v>16.207999999999998</v>
+      </c>
+      <c r="C26">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.875</v>
+      </c>
+      <c r="B27">
+        <v>16.187000000000001</v>
+      </c>
+      <c r="C27">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.8879999998025601</v>
+      </c>
+      <c r="B28">
+        <v>16.282</v>
+      </c>
+      <c r="C28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.8889999999664719</v>
+      </c>
+      <c r="B29">
+        <v>16.289000000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4.3209999999962747</v>
+      </c>
+      <c r="B30">
+        <v>16.234999999999999</v>
+      </c>
+      <c r="C30">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.3220000001601866</v>
+      </c>
+      <c r="B31">
+        <v>16.344999999999999</v>
+      </c>
+      <c r="C31">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.6889999997802079</v>
+      </c>
+      <c r="B32">
+        <v>16.372</v>
+      </c>
+      <c r="C32">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.6899999999441206</v>
+      </c>
+      <c r="B33">
+        <v>16.323</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4.7289999998174608</v>
+      </c>
+      <c r="B34">
+        <v>16.318999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4.7299999999813744</v>
+      </c>
+      <c r="B35">
+        <v>16.29</v>
+      </c>
+      <c r="C35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5.3130000000819564</v>
+      </c>
+      <c r="B36">
+        <v>16.155999999999999</v>
+      </c>
+      <c r="C36">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.3139999997802079</v>
+      </c>
+      <c r="B37">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="C37">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5.4589999997988343</v>
+      </c>
+      <c r="B38">
+        <v>16.111000000000001</v>
+      </c>
+      <c r="C38">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2.1650000000372529</v>
-      </c>
-      <c r="C5">
-        <v>14.789</v>
-      </c>
-      <c r="D5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2.2310000001452859</v>
-      </c>
-      <c r="C6">
-        <v>14.957000000000001</v>
-      </c>
-      <c r="D6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2.6069999998435378</v>
-      </c>
-      <c r="C7">
-        <v>15.106</v>
-      </c>
-      <c r="D7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.4599999999627471</v>
+      </c>
+      <c r="B39">
+        <v>16.131</v>
+      </c>
+      <c r="C39">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.5180000001564622</v>
+      </c>
+      <c r="B40">
+        <v>16.140999999999998</v>
+      </c>
+      <c r="C40">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5.5189999998547137</v>
+      </c>
+      <c r="B41">
+        <v>16.184999999999999</v>
+      </c>
+      <c r="C41">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2.608000000007451</v>
-      </c>
-      <c r="C8">
-        <v>15.102</v>
-      </c>
-      <c r="D8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2.6290000001899898</v>
-      </c>
-      <c r="C9">
-        <v>15.202</v>
-      </c>
-      <c r="D9">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2.6290000001899898</v>
-      </c>
-      <c r="C10">
-        <v>15.202</v>
-      </c>
-      <c r="D10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2.7880000001750891</v>
-      </c>
-      <c r="C11">
-        <v>15.391999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2.7880000001750891</v>
-      </c>
-      <c r="C12">
-        <v>15.391999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.8209999999962752</v>
-      </c>
-      <c r="C13">
-        <v>15.273999999999999</v>
-      </c>
-      <c r="D13">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.822000000160187</v>
-      </c>
-      <c r="C14">
-        <v>15.247</v>
-      </c>
-      <c r="D14">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.8960000001825388</v>
-      </c>
-      <c r="C15">
-        <v>15.502000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2.8960000001825388</v>
-      </c>
-      <c r="C16">
-        <v>15.502000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3.2349999998696148</v>
-      </c>
-      <c r="C17">
-        <v>15.651999999999999</v>
-      </c>
-      <c r="D17">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3.31900000013411</v>
-      </c>
-      <c r="C18">
-        <v>15.756</v>
-      </c>
-      <c r="D18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3.3199999998323619</v>
-      </c>
-      <c r="C19">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5.546000000089407</v>
+      </c>
+      <c r="B42">
+        <v>16.196999999999999</v>
+      </c>
+      <c r="C42">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5.5469999997876576</v>
+      </c>
+      <c r="B43">
+        <v>16.224</v>
+      </c>
+      <c r="C43">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6.4160000002011657</v>
+      </c>
+      <c r="B44">
         <v>15.949</v>
       </c>
-      <c r="D19">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3.572999999858439</v>
-      </c>
-      <c r="C20">
-        <v>16.023</v>
-      </c>
-      <c r="D20">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3.5740000000223522</v>
-      </c>
-      <c r="C21">
-        <v>16.044</v>
-      </c>
-      <c r="D21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3.6669999998994172</v>
-      </c>
-      <c r="C22">
-        <v>16.059000000000001</v>
-      </c>
-      <c r="D22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>3.6680000000633299</v>
-      </c>
-      <c r="C23">
-        <v>16.085000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>3.697999999858439</v>
-      </c>
-      <c r="C24">
-        <v>16.114999999999998</v>
-      </c>
-      <c r="D24">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>3.6990000000223522</v>
-      </c>
-      <c r="C25">
-        <v>16.123000000000001</v>
-      </c>
-      <c r="D25">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>3.8739999998360868</v>
-      </c>
-      <c r="C26">
-        <v>16.207999999999998</v>
-      </c>
-      <c r="D26">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>3.875</v>
-      </c>
-      <c r="C27">
-        <v>16.187000000000001</v>
-      </c>
-      <c r="D27">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3.8879999998025601</v>
-      </c>
-      <c r="C28">
-        <v>16.282</v>
-      </c>
-      <c r="D28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>3.8889999999664719</v>
-      </c>
-      <c r="C29">
-        <v>16.289000000000001</v>
-      </c>
-      <c r="D29">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>4.3209999999962747</v>
-      </c>
-      <c r="C30">
-        <v>16.234999999999999</v>
-      </c>
-      <c r="D30">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>4.3220000001601866</v>
-      </c>
-      <c r="C31">
-        <v>16.344999999999999</v>
-      </c>
-      <c r="D31">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>4.6889999997802079</v>
-      </c>
-      <c r="C32">
-        <v>16.372</v>
-      </c>
-      <c r="D32">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>4.6899999999441206</v>
-      </c>
-      <c r="C33">
-        <v>16.323</v>
-      </c>
-      <c r="D33">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>4.7289999998174608</v>
-      </c>
-      <c r="C34">
-        <v>16.318999999999999</v>
-      </c>
-      <c r="D34">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>4.7299999999813744</v>
-      </c>
-      <c r="C35">
-        <v>16.29</v>
-      </c>
-      <c r="D35">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5.3130000000819564</v>
-      </c>
-      <c r="C36">
-        <v>16.155999999999999</v>
-      </c>
-      <c r="D36">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5.3139999997802079</v>
-      </c>
-      <c r="C37">
-        <v>16.265000000000001</v>
-      </c>
-      <c r="D37">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>5.4589999997988343</v>
-      </c>
-      <c r="C38">
-        <v>16.111000000000001</v>
-      </c>
-      <c r="D38">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>5.4599999999627471</v>
-      </c>
-      <c r="C39">
-        <v>16.131</v>
-      </c>
-      <c r="D39">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>5.5180000001564622</v>
-      </c>
-      <c r="C40">
-        <v>16.140999999999998</v>
-      </c>
-      <c r="D40">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>5.5189999998547137</v>
-      </c>
-      <c r="C41">
-        <v>16.184999999999999</v>
-      </c>
-      <c r="D41">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>5.546000000089407</v>
-      </c>
-      <c r="C42">
-        <v>16.196999999999999</v>
-      </c>
-      <c r="D42">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5.5469999997876576</v>
-      </c>
-      <c r="C43">
-        <v>16.224</v>
-      </c>
-      <c r="D43">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>6.4160000002011657</v>
-      </c>
       <c r="C44">
-        <v>15.949</v>
-      </c>
-      <c r="D44">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.4180000000633299</v>
       </c>
       <c r="B45">
-        <v>6.4180000000633299</v>
+        <v>15.935</v>
       </c>
       <c r="C45">
-        <v>15.935</v>
-      </c>
-      <c r="D45">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6.5049999998882413</v>
       </c>
       <c r="B46">
-        <v>6.5049999998882413</v>
+        <v>15.881</v>
       </c>
       <c r="C46">
-        <v>15.881</v>
-      </c>
-      <c r="D46">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6.5060000000521541</v>
       </c>
       <c r="B47">
-        <v>6.5060000000521541</v>
+        <v>15.925000000000001</v>
       </c>
       <c r="C47">
-        <v>15.925000000000001</v>
-      </c>
-      <c r="D47">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6.5800000000745058</v>
       </c>
       <c r="B48">
-        <v>6.5800000000745058</v>
+        <v>15.965</v>
       </c>
       <c r="C48">
-        <v>15.965</v>
-      </c>
-      <c r="D48">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6.5849999999627471</v>
       </c>
       <c r="B49">
-        <v>6.5849999999627471</v>
+        <v>15.837</v>
       </c>
       <c r="C49">
-        <v>15.837</v>
-      </c>
-      <c r="D49">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6.5860000001266599</v>
       </c>
       <c r="B50">
-        <v>6.5860000001266599</v>
+        <v>15.906000000000001</v>
       </c>
       <c r="C50">
-        <v>15.906000000000001</v>
-      </c>
-      <c r="D50">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
